--- a/ecosysem/reactions/Excel/microprony.xlsx
+++ b/ecosysem/reactions/Excel/microprony.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD38777-FC47-469C-8F12-FF36A1405EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F6CE5A-0E22-4B42-BEF2-E2B5CF62CA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Compounds</t>
   </si>
@@ -285,6 +285,10 @@
   <si>
     <t>Methane oxidation sulphate reduction 7
 (MetOSR7)</t>
+  </si>
+  <si>
+    <t>Homoacetogenesis
+(AcGen)</t>
   </si>
 </sst>
 </file>
@@ -634,13 +638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AZ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
+      <selection pane="bottomRight" activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,20 +657,20 @@
     <col min="13" max="15" width="15" style="4" customWidth="1"/>
     <col min="16" max="30" width="18.88671875" style="4" customWidth="1"/>
     <col min="31" max="32" width="26.21875" style="4" customWidth="1"/>
-    <col min="33" max="35" width="22.77734375" style="4" customWidth="1"/>
-    <col min="36" max="36" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="21.109375" style="4" customWidth="1"/>
-    <col min="40" max="43" width="26.77734375" style="4" customWidth="1"/>
-    <col min="44" max="44" width="15.88671875" style="4" customWidth="1"/>
-    <col min="45" max="46" width="18" style="4" customWidth="1"/>
-    <col min="47" max="47" width="15.33203125" style="4" customWidth="1"/>
-    <col min="48" max="48" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.21875" style="4" customWidth="1"/>
-    <col min="50" max="51" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="8.88671875" style="4"/>
+    <col min="33" max="36" width="22.77734375" style="4" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="21.109375" style="4" customWidth="1"/>
+    <col min="41" max="44" width="26.77734375" style="4" customWidth="1"/>
+    <col min="45" max="45" width="15.88671875" style="4" customWidth="1"/>
+    <col min="46" max="47" width="18" style="4" customWidth="1"/>
+    <col min="48" max="48" width="15.33203125" style="4" customWidth="1"/>
+    <col min="49" max="49" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.21875" style="4" customWidth="1"/>
+    <col min="51" max="52" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,55 +777,58 @@
         <v>48</v>
       </c>
       <c r="AJ1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -903,38 +910,38 @@
       <c r="AI2" s="4">
         <v>-2.6</v>
       </c>
-      <c r="AK2" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AM2" s="4">
+      <c r="AL2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AN2" s="4">
         <v>-0.25</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AO2" s="4">
         <v>-1.6</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AP2" s="4">
         <v>0.4</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AQ2" s="4">
         <v>-0.6</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AR2" s="4">
         <v>-1.6</v>
       </c>
-      <c r="AS2" s="4">
-        <v>2</v>
-      </c>
       <c r="AT2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="4">
         <v>1</v>
       </c>
       <c r="AW2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1028,14 +1035,14 @@
       <c r="AJ3" s="4">
         <v>0.5</v>
       </c>
-      <c r="AM3" s="4">
+      <c r="AK3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AN3" s="4">
         <v>0.75</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AO3" s="4">
         <v>2.8</v>
-      </c>
-      <c r="AO3" s="4">
-        <v>0.8</v>
       </c>
       <c r="AP3" s="4">
         <v>0.8</v>
@@ -1044,19 +1051,22 @@
         <v>0.8</v>
       </c>
       <c r="AR3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AV3" s="4">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>2</v>
       </c>
       <c r="AW3" s="4">
         <v>1</v>
       </c>
       <c r="AX3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1081,9 +1091,6 @@
       <c r="O4" s="4">
         <v>-1.5</v>
       </c>
-      <c r="AR4" s="4">
-        <v>-2</v>
-      </c>
       <c r="AS4" s="4">
         <v>-2</v>
       </c>
@@ -1094,16 +1101,19 @@
         <v>-2</v>
       </c>
       <c r="AV4" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AW4" s="4">
         <v>-1.5</v>
       </c>
-      <c r="AW4" s="4">
+      <c r="AX4" s="4">
         <v>-2</v>
       </c>
-      <c r="AY4" s="4">
+      <c r="AZ4" s="4">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1138,22 +1148,25 @@
         <v>2</v>
       </c>
       <c r="AJ5" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="AK5" s="4">
         <v>-0.25</v>
       </c>
-      <c r="AK5" s="4">
-        <v>1</v>
-      </c>
       <c r="AL5" s="4">
         <v>1</v>
       </c>
-      <c r="AN5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AM5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1188,7 +1201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1217,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1242,11 +1255,14 @@
       <c r="AJ8" s="4">
         <v>-1</v>
       </c>
-      <c r="AM8" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AK8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1259,14 +1275,14 @@
       <c r="Z9" s="4">
         <v>1</v>
       </c>
-      <c r="AO9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AS9" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AP9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1300,14 +1316,14 @@
       <c r="AA10" s="4">
         <v>1</v>
       </c>
-      <c r="AP10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AT10" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AQ10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1323,14 +1339,14 @@
       <c r="AD11" s="4">
         <v>1</v>
       </c>
-      <c r="AQ11" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AU11" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AR11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AV11" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -1385,16 +1401,13 @@
       <c r="AD12" s="4">
         <v>-1</v>
       </c>
-      <c r="AO12" s="4">
-        <v>1</v>
-      </c>
       <c r="AP12" s="4">
         <v>1</v>
       </c>
       <c r="AQ12" s="4">
         <v>1</v>
       </c>
-      <c r="AS12" s="4">
+      <c r="AR12" s="4">
         <v>1</v>
       </c>
       <c r="AT12" s="4">
@@ -1403,8 +1416,11 @@
       <c r="AU12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AV12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1441,25 +1457,25 @@
       <c r="W13" s="4">
         <v>1</v>
       </c>
-      <c r="AM13" s="4">
+      <c r="AN13" s="4">
         <v>0.25</v>
       </c>
-      <c r="AV13" s="4">
-        <v>-1</v>
-      </c>
       <c r="AW13" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX13" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AX14" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY14" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1469,17 +1485,17 @@
       <c r="AG15" s="4">
         <v>4</v>
       </c>
-      <c r="AV15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="4">
-        <v>-1</v>
+      <c r="AW15" s="4">
+        <v>1</v>
       </c>
       <c r="AY15" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ15" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1498,11 +1514,8 @@
       <c r="AI16" s="4">
         <v>-1.6</v>
       </c>
-      <c r="AM16" s="4">
+      <c r="AN16" s="4">
         <v>-0.25</v>
-      </c>
-      <c r="AN16" s="4">
-        <v>-1.6</v>
       </c>
       <c r="AO16" s="4">
         <v>-1.6</v>
@@ -1513,14 +1526,17 @@
       <c r="AQ16" s="4">
         <v>-1.6</v>
       </c>
-      <c r="AW16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AR16" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="AX16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1533,9 +1549,6 @@
       <c r="AI17" s="4">
         <v>0.8</v>
       </c>
-      <c r="AN17" s="4">
-        <v>0.8</v>
-      </c>
       <c r="AO17" s="4">
         <v>0.8</v>
       </c>
@@ -1545,11 +1558,14 @@
       <c r="AQ17" s="4">
         <v>0.8</v>
       </c>
-      <c r="AX17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AR17" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AY17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1574,23 +1590,23 @@
       <c r="AD18" s="4">
         <v>-1</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AK18" s="4">
         <v>0.25</v>
       </c>
-      <c r="AK18" s="4">
-        <v>1</v>
-      </c>
       <c r="AL18" s="4">
         <v>1</v>
       </c>
-      <c r="AN18" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AR18" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AM18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -1609,11 +1625,14 @@
       <c r="W19" s="4">
         <v>0.75</v>
       </c>
-      <c r="AL19" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AJ19" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1647,11 +1666,11 @@
       <c r="AI20" s="4">
         <v>-1</v>
       </c>
-      <c r="AK20" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AL20" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>

--- a/ecosysem/reactions/Excel/microprony.xlsx
+++ b/ecosysem/reactions/Excel/microprony.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F6CE5A-0E22-4B42-BEF2-E2B5CF62CA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BF3DCD-A78C-4BCD-96CF-A98E17D92AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4044" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Compounds</t>
   </si>
@@ -289,6 +289,45 @@
   <si>
     <t>Homoacetogenesis
 (AcGen)</t>
+  </si>
+  <si>
+    <t>Methanogenesis by formate (ForMetGen)</t>
+  </si>
+  <si>
+    <t>HCOOH</t>
+  </si>
+  <si>
+    <t>HCOO-</t>
+  </si>
+  <si>
+    <t>Formate dissimilatory Nitrate reduction to ammonia (ForDNRA)</t>
+  </si>
+  <si>
+    <t>Formate oxidation nitrate reduction to nitrite (ForOPDEN)</t>
+  </si>
+  <si>
+    <t>Formate oxidation nitrate reduction to N2 (ForOCDEN)</t>
+  </si>
+  <si>
+    <t>Formatogenesis (ForGen)</t>
+  </si>
+  <si>
+    <t>Aerobic formate oxidation (AEForO)</t>
+  </si>
+  <si>
+    <t>Formate oxidation sulphate reduction (ForOSR)</t>
+  </si>
+  <si>
+    <t>Methane oxidation nitrate reduction to nitrite (MetOPDEN)</t>
+  </si>
+  <si>
+    <t>Hydrogen sulfide oxidation nitrate reduction to nitrite (H2SOPDEN)</t>
+  </si>
+  <si>
+    <t>Glycine oxidation nitrate reduction to nitrite (GlyOPDEN)</t>
+  </si>
+  <si>
+    <t>Glycine oxidation nitrate reduction to N2 (GlyOCDEN)</t>
   </si>
 </sst>
 </file>
@@ -638,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ21"/>
+  <dimension ref="A1:BK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI6" sqref="AI6"/>
+      <selection pane="bottomRight" activeCell="BF6" sqref="BF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,10 +706,21 @@
     <col min="49" max="49" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="20.21875" style="4" customWidth="1"/>
     <col min="51" max="52" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.88671875" style="4"/>
+    <col min="53" max="53" width="20.77734375" style="4" customWidth="1"/>
+    <col min="54" max="54" width="21.44140625" style="4" customWidth="1"/>
+    <col min="55" max="55" width="24.6640625" style="4" customWidth="1"/>
+    <col min="56" max="56" width="21.88671875" style="4" customWidth="1"/>
+    <col min="57" max="57" width="18.88671875" style="4" customWidth="1"/>
+    <col min="58" max="58" width="18.5546875" style="4" customWidth="1"/>
+    <col min="59" max="59" width="19.88671875" style="4" customWidth="1"/>
+    <col min="60" max="60" width="24.77734375" style="4" customWidth="1"/>
+    <col min="61" max="61" width="21" style="4" customWidth="1"/>
+    <col min="62" max="62" width="18.5546875" style="4" customWidth="1"/>
+    <col min="63" max="63" width="19.109375" style="4" customWidth="1"/>
+    <col min="64" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,8 +877,41 @@
       <c r="AZ1" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -940,8 +1023,23 @@
       <c r="AX2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BB2" s="4">
+        <v>-0.25</v>
+      </c>
+      <c r="BD2" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="BG2" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="BH2" s="4">
+        <v>2</v>
+      </c>
+      <c r="BK2" s="4">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1065,8 +1163,35 @@
       <c r="AY3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="BB3" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="BC3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="BF3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="4">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1112,8 +1237,11 @@
       <c r="AZ4" s="4">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BF4" s="4">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1165,8 +1293,38 @@
       <c r="AS5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="BB5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BF5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="4">
+        <v>2</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1201,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1230,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1261,8 +1419,11 @@
       <c r="AN8" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BE8" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1281,8 +1442,14 @@
       <c r="AT9" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BG9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="BH9" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1323,7 +1490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1346,7 +1513,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -1419,8 +1586,14 @@
       <c r="AV12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BG12" s="4">
+        <v>-0.25</v>
+      </c>
+      <c r="BH12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1466,8 +1639,17 @@
       <c r="AX13" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BB13" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="BJ13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>63</v>
       </c>
@@ -1475,7 +1657,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1494,8 +1676,20 @@
       <c r="AZ15" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BC15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI15" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1535,8 +1729,29 @@
       <c r="AZ16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BB16" s="4">
+        <v>-0.25</v>
+      </c>
+      <c r="BC16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BD16" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="BH16" s="4">
+        <v>-4</v>
+      </c>
+      <c r="BI16" s="4">
+        <v>-4</v>
+      </c>
+      <c r="BJ16" s="4">
+        <v>-3</v>
+      </c>
+      <c r="BK16" s="4">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1564,8 +1779,14 @@
       <c r="AY17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BD17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="BK17" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1605,8 +1826,14 @@
       <c r="AS18" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BA18" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="BI18" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -1632,7 +1859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1670,7 +1897,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1706,6 +1933,43 @@
       </c>
       <c r="W21" s="4">
         <v>-1</v>
+      </c>
+      <c r="BJ21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BK21" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BB22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BC22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BD22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BE22" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="BG22" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
